--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>MARS</t>
+  </si>
+  <si>
+    <t>lm</t>
   </si>
 </sst>
 </file>
@@ -368,21 +371,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -413,10 +416,10 @@
         <v>9.2132290000000006E-2</v>
       </c>
       <c r="E2">
-        <v>3.6970459999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.1061506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -430,10 +433,10 @@
         <v>8.9978719999999998E-2</v>
       </c>
       <c r="E3">
-        <v>6.0423299999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.1116287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -447,10 +450,10 @@
         <v>6.0681069999999997E-2</v>
       </c>
       <c r="E4">
-        <v>6.303839E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14699709999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -464,7 +467,63 @@
         <v>0.1106635</v>
       </c>
       <c r="E5">
-        <v>4.9366840000000002E-2</v>
+        <v>0.1053959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>9.3469170000000004E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.12828000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>9.3826179999999995E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.1142764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5.3008699999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.13004679999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.1048269</v>
+      </c>
+      <c r="E9">
+        <v>0.1145216</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +477,9 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>0.12234</v>
+      </c>
       <c r="D6">
         <v>9.3469170000000004E-2</v>
       </c>
@@ -491,6 +494,9 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.12506</v>
+      </c>
       <c r="D7">
         <v>9.3826179999999995E-2</v>
       </c>
@@ -505,6 +511,9 @@
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>0.14255000000000001</v>
+      </c>
       <c r="D8">
         <v>5.3008699999999999E-2</v>
       </c>
@@ -518,6 +527,9 @@
       </c>
       <c r="B9">
         <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.12594</v>
       </c>
       <c r="D9">
         <v>0.1048269</v>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,44 @@
         <v>0.1145216</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.1019815</v>
+      </c>
+      <c r="E10">
+        <v>0.1297403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>lm</t>
+  </si>
+  <si>
+    <t>xgBoost</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.1019815</v>
+        <v>9.2436290000000004E-2</v>
       </c>
       <c r="E10">
-        <v>0.1297403</v>
+        <v>0.12182999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -559,6 +562,12 @@
       <c r="B11">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>9.3832299999999993E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.1142702</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -567,6 +576,12 @@
       <c r="B12">
         <v>3</v>
       </c>
+      <c r="D12">
+        <v>5.3306829999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.13189980000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -574,6 +589,26 @@
       </c>
       <c r="B13">
         <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.1070931</v>
+      </c>
+      <c r="E13">
+        <v>0.1177433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>7.1447609999999995E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.11973</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kaggle\HousePrices\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +548,9 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>0.12536</v>
+      </c>
       <c r="D10">
         <v>9.2436290000000004E-2</v>
       </c>
@@ -562,6 +565,9 @@
       <c r="B11">
         <v>3</v>
       </c>
+      <c r="C11">
+        <v>0.12506</v>
+      </c>
       <c r="D11">
         <v>9.3832299999999993E-2</v>
       </c>
@@ -576,6 +582,9 @@
       <c r="B12">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>0.14221</v>
+      </c>
       <c r="D12">
         <v>5.3306829999999999E-2</v>
       </c>
@@ -590,6 +599,9 @@
       <c r="B13">
         <v>3</v>
       </c>
+      <c r="C13">
+        <v>0.12914</v>
+      </c>
       <c r="D13">
         <v>0.1070931</v>
       </c>
@@ -604,11 +616,14 @@
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>0.13227</v>
+      </c>
       <c r="D14">
-        <v>7.1447609999999995E-2</v>
+        <v>7.0583489999999999E-2</v>
       </c>
       <c r="E14">
-        <v>0.11973</v>
+        <v>0.1185364</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>xgBoost</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>randomGLM</t>
+  </si>
+  <si>
+    <t>bayes glm</t>
   </si>
 </sst>
 </file>
@@ -374,21 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -422,7 +431,7 @@
         <v>0.1061506</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -439,7 +448,7 @@
         <v>0.1116287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -456,7 +465,7 @@
         <v>0.14699709999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -473,7 +482,7 @@
         <v>0.1053959</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -490,7 +499,7 @@
         <v>0.12828000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -507,7 +516,7 @@
         <v>0.1142764</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -524,7 +533,7 @@
         <v>0.13004679999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -541,7 +550,7 @@
         <v>0.1145216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -558,7 +567,7 @@
         <v>0.12182999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -575,7 +584,7 @@
         <v>0.1142702</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -592,7 +601,7 @@
         <v>0.13189980000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -609,21 +618,60 @@
         <v>0.1177433</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>0.13227</v>
-      </c>
       <c r="D14">
-        <v>7.0583489999999999E-2</v>
+        <v>8.6877049999999997E-2</v>
       </c>
       <c r="E14">
-        <v>0.1185364</v>
+        <v>0.11837110000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>9.8409629999999998E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.1212863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>9.0798030000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.1256449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>9.0798030000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.12564030000000001</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,10 +62,10 @@
     <t>ridge</t>
   </si>
   <si>
-    <t>randomGLM</t>
-  </si>
-  <si>
     <t>bayes glm</t>
+  </si>
+  <si>
+    <t>bagged MARS</t>
   </si>
 </sst>
 </file>
@@ -81,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,21 +390,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G17" activeCellId="8" sqref="G2 G6 G7 G9 G10 G11 G13 G16 G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,8 +437,11 @@
       <c r="E2">
         <v>0.1061506</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -447,8 +457,11 @@
       <c r="E3">
         <v>0.1116287</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -464,8 +477,11 @@
       <c r="E4">
         <v>0.14699709999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -481,8 +497,11 @@
       <c r="E5">
         <v>0.1053959</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -498,8 +517,11 @@
       <c r="E6">
         <v>0.12828000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -515,8 +537,11 @@
       <c r="E7">
         <v>0.1142764</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -532,8 +557,11 @@
       <c r="E8">
         <v>0.13004679999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -549,8 +577,11 @@
       <c r="E9">
         <v>0.1145216</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -566,8 +597,11 @@
       <c r="E10">
         <v>0.12182999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -583,8 +617,11 @@
       <c r="E11">
         <v>0.1142702</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -600,8 +637,11 @@
       <c r="E12">
         <v>0.13189980000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -617,55 +657,79 @@
       <c r="E13">
         <v>0.1177433</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>0.13366</v>
+      </c>
       <c r="D14">
         <v>8.6877049999999997E-2</v>
       </c>
       <c r="E14">
         <v>0.11837110000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>0.13259000000000001</v>
+      </c>
       <c r="D15">
         <v>9.8409629999999998E-2</v>
       </c>
       <c r="E15">
         <v>0.1212863</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.12334000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.1031268</v>
+      </c>
+      <c r="E16">
+        <v>0.11530559999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>9.0798030000000002E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.1256449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
       <c r="B17">
         <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.12626000000000001</v>
       </c>
       <c r="D17">
         <v>9.0798030000000002E-2</v>
@@ -673,8 +737,12 @@
       <c r="E17">
         <v>0.12564030000000001</v>
       </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PerformanceTracker.xlsx
+++ b/PerformanceTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Champion</t>
-  </si>
-  <si>
     <t>Submit RMSE</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>bayes glm</t>
+  </si>
+  <si>
+    <t>infs</t>
+  </si>
+  <si>
+    <t>Champion (lm)</t>
   </si>
 </sst>
 </file>
@@ -386,37 +389,37 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -431,9 +434,9 @@
         <v>0.1061506</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -448,9 +451,9 @@
         <v>0.1116287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -465,9 +468,9 @@
         <v>0.14699709999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -482,9 +485,9 @@
         <v>0.1053959</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -499,9 +502,9 @@
         <v>0.12828000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -516,9 +519,9 @@
         <v>0.1142764</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -533,9 +536,9 @@
         <v>0.13004679999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -550,9 +553,9 @@
         <v>0.1145216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -567,9 +570,9 @@
         <v>0.12182999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -584,9 +587,9 @@
         <v>0.1142702</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -601,9 +604,9 @@
         <v>0.13189980000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -618,12 +621,15 @@
         <v>0.1177433</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0.12773999999999999</v>
       </c>
       <c r="D14">
         <v>8.6877049999999997E-2</v>
@@ -632,12 +638,15 @@
         <v>0.11837110000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0.13258</v>
       </c>
       <c r="D15">
         <v>9.8409629999999998E-2</v>
@@ -646,12 +655,15 @@
         <v>0.1212863</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
       <c r="D16">
         <v>9.0798030000000002E-2</v>
@@ -660,12 +672,15 @@
         <v>0.1256449</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.12623999999999999</v>
       </c>
       <c r="D17">
         <v>9.0798030000000002E-2</v>
